--- a/database/AN_ep/expdata/2003.xlsx
+++ b/database/AN_ep/expdata/2003.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\malda\Documents\GitHub\jam3d\database\AN_ep\expdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2125C075-0498-4617-A20F-1CBDECB4F4DE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42A5123A-4517-4C9F-9F80-340EAAB5CF28}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1068" yWindow="1068" windowWidth="9870" windowHeight="8172" xr2:uid="{A7F96095-0ACC-4AF4-9130-BB4670333B8A}"/>
+    <workbookView xWindow="4296" yWindow="1992" windowWidth="9870" windowHeight="8172" xr2:uid="{A7F96095-0ACC-4AF4-9130-BB4670333B8A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -452,7 +452,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47F0F870-D607-4369-BF4C-AD8849516005}">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:E18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
@@ -496,13 +498,13 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="F2">
         <v>63</v>
@@ -528,13 +530,13 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="F3">
         <v>63</v>
@@ -560,13 +562,13 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="F4">
         <v>63</v>
@@ -592,13 +594,13 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="F5">
         <v>63</v>
@@ -624,13 +626,13 @@
         <v>3</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="F6">
         <v>63</v>
@@ -656,13 +658,13 @@
         <v>3</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="F7">
         <v>63</v>
@@ -688,13 +690,13 @@
         <v>3</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="F8">
         <v>63</v>
@@ -720,13 +722,13 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="F9">
         <v>63</v>
@@ -752,13 +754,13 @@
         <v>3</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="F10">
         <v>63</v>
@@ -784,13 +786,13 @@
         <v>3</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="F11">
         <v>63</v>
@@ -816,13 +818,13 @@
         <v>3</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="F12">
         <v>63</v>
@@ -848,13 +850,13 @@
         <v>3</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="F13">
         <v>63</v>
@@ -880,13 +882,13 @@
         <v>3</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="F14">
         <v>63</v>
@@ -912,13 +914,13 @@
         <v>3</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="F15">
         <v>63</v>
@@ -944,13 +946,13 @@
         <v>3</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="F16">
         <v>63</v>
@@ -976,13 +978,13 @@
         <v>3</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="F17">
         <v>63</v>
@@ -1008,13 +1010,13 @@
         <v>3</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="F18">
         <v>63</v>

--- a/database/AN_ep/expdata/2003.xlsx
+++ b/database/AN_ep/expdata/2003.xlsx
@@ -153,7 +153,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -163,6 +163,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -186,10 +190,10 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F20" activeCellId="0" sqref="F20"/>
+      <selection pane="topLeft" activeCell="B22" activeCellId="0" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -480,8 +484,8 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="n">
-        <v>0</v>
+      <c r="A10" s="3" t="n">
+        <v>0.001</v>
       </c>
       <c r="B10" s="2" t="n">
         <v>3</v>

--- a/database/AN_ep/expdata/2003.xlsx
+++ b/database/AN_ep/expdata/2003.xlsx
@@ -190,7 +190,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B22" activeCellId="0" sqref="B22"/>
+      <selection pane="topLeft" activeCell="E22" activeCellId="0" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -484,8 +484,8 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="n">
-        <v>0.001</v>
+      <c r="A10" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="B10" s="2" t="n">
         <v>3</v>
@@ -516,8 +516,8 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
-        <v>0.100000000000001</v>
+      <c r="A11" s="3" t="n">
+        <v>0.1</v>
       </c>
       <c r="B11" s="2" t="n">
         <v>3</v>

--- a/database/AN_ep/expdata/2003.xlsx
+++ b/database/AN_ep/expdata/2003.xlsx
@@ -153,7 +153,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -163,10 +163,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -190,7 +186,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E22" activeCellId="0" sqref="E22"/>
+      <selection pane="topLeft" activeCell="H25" activeCellId="0" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -244,7 +240,7 @@
         <v>0.001</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>63</v>
+        <v>125</v>
       </c>
       <c r="G2" s="0" t="s">
         <v>10</v>
@@ -276,7 +272,7 @@
         <v>0.001</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>63</v>
+        <v>125</v>
       </c>
       <c r="G3" s="0" t="s">
         <v>10</v>
@@ -308,7 +304,7 @@
         <v>0.001</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>63</v>
+        <v>125</v>
       </c>
       <c r="G4" s="0" t="s">
         <v>10</v>
@@ -340,7 +336,7 @@
         <v>0.001</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>63</v>
+        <v>125</v>
       </c>
       <c r="G5" s="0" t="s">
         <v>10</v>
@@ -372,7 +368,7 @@
         <v>0.001</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>63</v>
+        <v>125</v>
       </c>
       <c r="G6" s="0" t="s">
         <v>10</v>
@@ -404,7 +400,7 @@
         <v>0.001</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>63</v>
+        <v>125</v>
       </c>
       <c r="G7" s="0" t="s">
         <v>10</v>
@@ -436,7 +432,7 @@
         <v>0.001</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>63</v>
+        <v>125</v>
       </c>
       <c r="G8" s="0" t="s">
         <v>10</v>
@@ -468,7 +464,7 @@
         <v>0.001</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>63</v>
+        <v>125</v>
       </c>
       <c r="G9" s="0" t="s">
         <v>10</v>
@@ -500,7 +496,7 @@
         <v>0.001</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>63</v>
+        <v>125</v>
       </c>
       <c r="G10" s="0" t="s">
         <v>10</v>
@@ -516,7 +512,7 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="n">
+      <c r="A11" s="0" t="n">
         <v>0.1</v>
       </c>
       <c r="B11" s="2" t="n">
@@ -532,7 +528,7 @@
         <v>0.001</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>63</v>
+        <v>125</v>
       </c>
       <c r="G11" s="0" t="s">
         <v>10</v>
@@ -564,7 +560,7 @@
         <v>0.001</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>63</v>
+        <v>125</v>
       </c>
       <c r="G12" s="0" t="s">
         <v>10</v>
@@ -596,7 +592,7 @@
         <v>0.001</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>63</v>
+        <v>125</v>
       </c>
       <c r="G13" s="0" t="s">
         <v>10</v>
@@ -628,7 +624,7 @@
         <v>0.001</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>63</v>
+        <v>125</v>
       </c>
       <c r="G14" s="0" t="s">
         <v>10</v>
@@ -660,7 +656,7 @@
         <v>0.001</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>63</v>
+        <v>125</v>
       </c>
       <c r="G15" s="0" t="s">
         <v>10</v>
@@ -692,7 +688,7 @@
         <v>0.001</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>63</v>
+        <v>125</v>
       </c>
       <c r="G16" s="0" t="s">
         <v>10</v>
@@ -724,7 +720,7 @@
         <v>0.001</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>63</v>
+        <v>125</v>
       </c>
       <c r="G17" s="0" t="s">
         <v>10</v>
@@ -756,7 +752,7 @@
         <v>0.001</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>63</v>
+        <v>125</v>
       </c>
       <c r="G18" s="0" t="s">
         <v>10</v>

--- a/database/AN_ep/expdata/2003.xlsx
+++ b/database/AN_ep/expdata/2003.xlsx
@@ -183,10 +183,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H25" activeCellId="0" sqref="H25"/>
+      <selection pane="topLeft" activeCell="G23" activeCellId="0" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -240,7 +240,7 @@
         <v>0.001</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>125</v>
+        <v>63</v>
       </c>
       <c r="G2" s="0" t="s">
         <v>10</v>
@@ -272,7 +272,7 @@
         <v>0.001</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>125</v>
+        <v>63</v>
       </c>
       <c r="G3" s="0" t="s">
         <v>10</v>
@@ -304,7 +304,7 @@
         <v>0.001</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>125</v>
+        <v>63</v>
       </c>
       <c r="G4" s="0" t="s">
         <v>10</v>
@@ -336,7 +336,7 @@
         <v>0.001</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>125</v>
+        <v>63</v>
       </c>
       <c r="G5" s="0" t="s">
         <v>10</v>
@@ -368,7 +368,7 @@
         <v>0.001</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>125</v>
+        <v>63</v>
       </c>
       <c r="G6" s="0" t="s">
         <v>10</v>
@@ -400,7 +400,7 @@
         <v>0.001</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>125</v>
+        <v>63</v>
       </c>
       <c r="G7" s="0" t="s">
         <v>10</v>
@@ -432,7 +432,7 @@
         <v>0.001</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>125</v>
+        <v>63</v>
       </c>
       <c r="G8" s="0" t="s">
         <v>10</v>
@@ -464,7 +464,7 @@
         <v>0.001</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>125</v>
+        <v>63</v>
       </c>
       <c r="G9" s="0" t="s">
         <v>10</v>
@@ -496,7 +496,7 @@
         <v>0.001</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>125</v>
+        <v>63</v>
       </c>
       <c r="G10" s="0" t="s">
         <v>10</v>
@@ -528,7 +528,7 @@
         <v>0.001</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>125</v>
+        <v>63</v>
       </c>
       <c r="G11" s="0" t="s">
         <v>10</v>
@@ -560,7 +560,7 @@
         <v>0.001</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>125</v>
+        <v>63</v>
       </c>
       <c r="G12" s="0" t="s">
         <v>10</v>
@@ -592,7 +592,7 @@
         <v>0.001</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>125</v>
+        <v>63</v>
       </c>
       <c r="G13" s="0" t="s">
         <v>10</v>
@@ -624,7 +624,7 @@
         <v>0.001</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>125</v>
+        <v>63</v>
       </c>
       <c r="G14" s="0" t="s">
         <v>10</v>
@@ -656,7 +656,7 @@
         <v>0.001</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>125</v>
+        <v>63</v>
       </c>
       <c r="G15" s="0" t="s">
         <v>10</v>
@@ -688,7 +688,7 @@
         <v>0.001</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>125</v>
+        <v>63</v>
       </c>
       <c r="G16" s="0" t="s">
         <v>10</v>
@@ -720,7 +720,7 @@
         <v>0.001</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>125</v>
+        <v>63</v>
       </c>
       <c r="G17" s="0" t="s">
         <v>10</v>
@@ -752,7 +752,7 @@
         <v>0.001</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>125</v>
+        <v>63</v>
       </c>
       <c r="G18" s="0" t="s">
         <v>10</v>
@@ -767,6 +767,7 @@
         <v>13</v>
       </c>
     </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
